--- a/doc/物联网网关/消防分类.xlsx
+++ b/doc/物联网网关/消防分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2055" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,34 +29,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>放烟及排烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器与通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动喷水和灭火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气体灭火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水雾灭火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>防火门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放烟及排烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电器与通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动喷水和灭火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气体灭火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水雾灭火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防火门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应急照明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,24 +132,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>喷淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防电梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑防火分隔和安全疏散设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火门（卷帘门）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>自动喷水灭火系统</t>
-  </si>
-  <si>
-    <t>喷淋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>气体灭火系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泡沫灭火系统</t>
-  </si>
-  <si>
-    <t>消防电梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑防火分隔和安全疏散设施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,134 +506,134 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
